--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CUCXCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CUCXCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>CUCXCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>189.51483309676507</v>
       </c>
       <c r="C2" t="n">
-        <v>224.61623856669874</v>
+        <v>171.2765422010137</v>
       </c>
       <c r="D2" t="n">
-        <v>212.4860818657189</v>
-      </c>
-      <c r="E2" t="n">
-        <v>236.7463952676786</v>
+        <v>207.75312399251644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>194.16072273039234</v>
       </c>
       <c r="C3" t="n">
-        <v>240.99969293654172</v>
+        <v>170.40018516831302</v>
       </c>
       <c r="D3" t="n">
-        <v>226.76823111003287</v>
-      </c>
-      <c r="E3" t="n">
-        <v>255.23115476305057</v>
+        <v>217.92126029247166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>194.90942205711852</v>
       </c>
       <c r="C4" t="n">
-        <v>241.25663003301986</v>
+        <v>166.77081285077227</v>
       </c>
       <c r="D4" t="n">
-        <v>225.76324124196077</v>
-      </c>
-      <c r="E4" t="n">
-        <v>256.75001882407895</v>
+        <v>223.04803126346476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>197.23088608069227</v>
       </c>
       <c r="C5" t="n">
-        <v>239.7179224600336</v>
+        <v>165.3129042166733</v>
       </c>
       <c r="D5" t="n">
-        <v>223.42541343323555</v>
-      </c>
-      <c r="E5" t="n">
-        <v>256.01043148683164</v>
+        <v>229.14886794471124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>197.62668988013664</v>
       </c>
       <c r="C6" t="n">
-        <v>223.93902877775344</v>
+        <v>162.33191248289418</v>
       </c>
       <c r="D6" t="n">
-        <v>207.12694142770252</v>
-      </c>
-      <c r="E6" t="n">
-        <v>240.75111612780435</v>
+        <v>232.9214672773791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>202.30025011983446</v>
       </c>
       <c r="C7" t="n">
-        <v>241.75527099292896</v>
+        <v>163.92467961570603</v>
       </c>
       <c r="D7" t="n">
-        <v>224.6002786402899</v>
-      </c>
-      <c r="E7" t="n">
-        <v>258.910263345568</v>
+        <v>240.6758206239629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>203.0503786351662</v>
       </c>
       <c r="C8" t="n">
-        <v>243.19124728715465</v>
+        <v>161.82359755555177</v>
       </c>
       <c r="D8" t="n">
-        <v>225.8078932695048</v>
-      </c>
-      <c r="E8" t="n">
-        <v>260.5746013048045</v>
+        <v>244.27715971478062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>205.3719164764245</v>
       </c>
       <c r="C9" t="n">
-        <v>242.62276948988418</v>
+        <v>161.4787445343762</v>
       </c>
       <c r="D9" t="n">
-        <v>225.08646617770242</v>
-      </c>
-      <c r="E9" t="n">
-        <v>260.1590728020659</v>
+        <v>249.2650884184728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>205.76772408855706</v>
       </c>
       <c r="C10" t="n">
-        <v>227.64227658976955</v>
+        <v>159.36111240451928</v>
       </c>
       <c r="D10" t="n">
-        <v>210.0031548855053</v>
-      </c>
-      <c r="E10" t="n">
-        <v>245.2813982940338</v>
+        <v>252.17433577259484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>210.44128452518046</v>
       </c>
       <c r="C11" t="n">
-        <v>246.11552173859783</v>
+        <v>161.65054080419037</v>
       </c>
       <c r="D11" t="n">
-        <v>228.40711430220892</v>
-      </c>
-      <c r="E11" t="n">
-        <v>263.82392917498674</v>
+        <v>259.2320282461705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>211.19141305068345</v>
       </c>
       <c r="C12" t="n">
-        <v>248.0921448664321</v>
+        <v>160.12772989228446</v>
       </c>
       <c r="D12" t="n">
-        <v>230.33697328285672</v>
-      </c>
-      <c r="E12" t="n">
-        <v>265.8473164500075</v>
+        <v>262.2550962090824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>213.5129508924671</v>
       </c>
       <c r="C13" t="n">
-        <v>247.96856462398043</v>
+        <v>160.27327769140985</v>
       </c>
       <c r="D13" t="n">
-        <v>230.18179594517127</v>
-      </c>
-      <c r="E13" t="n">
-        <v>265.75533330278955</v>
+        <v>266.75262409352433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>213.90875850462683</v>
       </c>
       <c r="C14" t="n">
-        <v>233.35417732548873</v>
+        <v>158.57860517563827</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5460441236402</v>
-      </c>
-      <c r="E14" t="n">
-        <v>251.1623105273373</v>
+        <v>269.23891183361536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>218.5823189412516</v>
       </c>
       <c r="C15" t="n">
-        <v>252.12869028324948</v>
+        <v>161.23784290158935</v>
       </c>
       <c r="D15" t="n">
-        <v>234.30610437686073</v>
-      </c>
-      <c r="E15" t="n">
-        <v>269.95127618963824</v>
+        <v>275.9267949809138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>219.33244746675467</v>
       </c>
       <c r="C16" t="n">
-        <v>254.35322628730472</v>
+        <v>160.04204354573716</v>
       </c>
       <c r="D16" t="n">
-        <v>236.52086020726375</v>
-      </c>
-      <c r="E16" t="n">
-        <v>272.1855923673457</v>
+        <v>278.6228513877722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>221.6539853085383</v>
       </c>
       <c r="C17" t="n">
-        <v>254.43365321845044</v>
+        <v>160.4795211754425</v>
       </c>
       <c r="D17" t="n">
-        <v>236.5946674192738</v>
-      </c>
-      <c r="E17" t="n">
-        <v>272.27263901762706</v>
+        <v>282.82844944163406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>222.04979292069802</v>
       </c>
       <c r="C18" t="n">
-        <v>239.9871431497081</v>
+        <v>159.04758560360924</v>
       </c>
       <c r="D18" t="n">
-        <v>222.14367612149078</v>
-      </c>
-      <c r="E18" t="n">
-        <v>257.8306101779254</v>
+        <v>285.0520002377868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>226.7233533573228</v>
       </c>
       <c r="C19" t="n">
-        <v>258.89980205484585</v>
+        <v>161.94495270031794</v>
       </c>
       <c r="D19" t="n">
-        <v>241.05330114666097</v>
-      </c>
-      <c r="E19" t="n">
-        <v>276.7463029630308</v>
+        <v>291.5017540143276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>227.47348188282587</v>
       </c>
       <c r="C20" t="n">
-        <v>261.2380181738589</v>
+        <v>160.96630740868767</v>
       </c>
       <c r="D20" t="n">
-        <v>243.38946312966814</v>
-      </c>
-      <c r="E20" t="n">
-        <v>279.08657321804964</v>
+        <v>293.98065635696406</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>229.79501972460955</v>
       </c>
       <c r="C21" t="n">
-        <v>261.4119923192528</v>
+        <v>161.6028843907789</v>
       </c>
       <c r="D21" t="n">
-        <v>243.56204642602933</v>
-      </c>
-      <c r="E21" t="n">
-        <v>279.26193821247637</v>
+        <v>297.9871550584402</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>230.19082733676922</v>
       </c>
       <c r="C22" t="n">
-        <v>247.04246212774643</v>
+        <v>160.35437277153883</v>
       </c>
       <c r="D22" t="n">
-        <v>229.19157446566317</v>
-      </c>
-      <c r="E22" t="n">
-        <v>264.8933497898297</v>
+        <v>300.0272819019996</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>234.86438777339404</v>
       </c>
       <c r="C23" t="n">
-        <v>266.0184676706957</v>
+        <v>163.42144934631438</v>
       </c>
       <c r="D23" t="n">
-        <v>248.16694230654855</v>
-      </c>
-      <c r="E23" t="n">
-        <v>283.8699930348429</v>
+        <v>306.30732620047365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>235.61451629889706</v>
       </c>
       <c r="C24" t="n">
-        <v>268.4088116530687</v>
+        <v>162.60043193190995</v>
       </c>
       <c r="D24" t="n">
-        <v>250.55685447412185</v>
-      </c>
-      <c r="E24" t="n">
-        <v>286.2607688320156</v>
+        <v>308.62860066588416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>237.93605414068074</v>
       </c>
       <c r="C25" t="n">
-        <v>268.62568174736145</v>
+        <v>163.3839275391979</v>
       </c>
       <c r="D25" t="n">
-        <v>250.77343216568414</v>
-      </c>
-      <c r="E25" t="n">
-        <v>286.47793132903877</v>
+        <v>312.48818074216354</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>238.3318617528404</v>
       </c>
       <c r="C26" t="n">
-        <v>254.29145057471612</v>
+        <v>162.27278835815898</v>
       </c>
       <c r="D26" t="n">
-        <v>236.43900299168084</v>
-      </c>
-      <c r="E26" t="n">
-        <v>272.1438981577514</v>
+        <v>314.3909351475218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>243.00542218946524</v>
       </c>
       <c r="C27" t="n">
-        <v>273.2965036329795</v>
+        <v>165.4686843775638</v>
       </c>
       <c r="D27" t="n">
-        <v>255.44392197215524</v>
-      </c>
-      <c r="E27" t="n">
-        <v>291.1490852938038</v>
+        <v>320.54216000136665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>243.7555507149683</v>
       </c>
       <c r="C28" t="n">
-        <v>275.7107507767759</v>
+        <v>164.76878742284725</v>
       </c>
       <c r="D28" t="n">
-        <v>257.8580783241123</v>
-      </c>
-      <c r="E28" t="n">
-        <v>293.56342322943954</v>
+        <v>322.74231400708936</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>246.07708855675193</v>
       </c>
       <c r="C29" t="n">
-        <v>275.94729075056966</v>
+        <v>165.66644348895278</v>
       </c>
       <c r="D29" t="n">
-        <v>258.0945568173662</v>
-      </c>
-      <c r="E29" t="n">
-        <v>293.80002468377313</v>
+        <v>326.4877336245511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>246.47289616891166</v>
       </c>
       <c r="C30" t="n">
-        <v>261.62924589540484</v>
+        <v>164.6631479412488</v>
       </c>
       <c r="D30" t="n">
-        <v>243.7764703300237</v>
-      </c>
-      <c r="E30" t="n">
-        <v>279.482021460786</v>
+        <v>328.2826443965745</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>251.14645660553643</v>
       </c>
       <c r="C31" t="n">
-        <v>280.6476186526305</v>
+        <v>167.96113356157875</v>
       </c>
       <c r="D31" t="n">
-        <v>262.7948148955673</v>
-      </c>
-      <c r="E31" t="n">
-        <v>298.5004224096937</v>
+        <v>334.3317796494941</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>251.8965851310395</v>
       </c>
       <c r="C32" t="n">
-        <v>283.07282655885234</v>
+        <v>167.35806707695002</v>
       </c>
       <c r="D32" t="n">
-        <v>265.2200037114728</v>
-      </c>
-      <c r="E32" t="n">
-        <v>300.92564940623186</v>
+        <v>336.435103185129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>254.21812297282312</v>
       </c>
       <c r="C33" t="n">
-        <v>283.31838612935684</v>
+        <v>168.34773168667826</v>
       </c>
       <c r="D33" t="n">
-        <v>265.46555035474825</v>
-      </c>
-      <c r="E33" t="n">
-        <v>301.17122190396543</v>
+        <v>340.08851425896796</v>
       </c>
     </row>
   </sheetData>
